--- a/annotations/time_prediction.xlsx
+++ b/annotations/time_prediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>complete time</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,16 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009894053141276041</v>
+        <v>0.007242679595947266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001836140950520833</v>
+        <v>0.003272533416748047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1839508215586344</v>
+        <v>0.1957933902740479</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1946489810943604</v>
+        <v>0.2078537940979004</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47.13</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +494,6343 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004464387893676758</v>
+        <v>0.003759622573852539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002647956212361654</v>
+        <v>0.01870918273925781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.133866548538208</v>
+        <v>0.3317675590515137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1478514671325684</v>
+        <v>0.3381850719451904</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arrest001_x264.npy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.004823684692382812</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02072453498840332</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5149202346801758</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5241813659667969</v>
+      </c>
+      <c r="F4" t="n">
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arrest007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.009447336196899414</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5940465927124023</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6858336925506592</v>
+      </c>
+      <c r="F5" t="n">
+        <v>104.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arrest024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.007732629776000977</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.004098176956176758</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7270691394805908</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7346718311309814</v>
+      </c>
+      <c r="F6" t="n">
+        <v>121.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arrest030_x264.npy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.008959770202636719</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00918269157409668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.519736528396606</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.529057502746582</v>
+      </c>
+      <c r="F7" t="n">
+        <v>288.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arrest039_x264.npy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.005086898803710938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01365041732788086</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.707300186157227</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.717257976531982</v>
+      </c>
+      <c r="F8" t="n">
+        <v>527.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arson007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.008643388748168945</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.132235527038574</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.192727327346802</v>
+      </c>
+      <c r="F9" t="n">
+        <v>208.45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Arson009_x264.npy</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.009692907333374023</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01059532165527344</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.254298210144043</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2918682098388672</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Arson010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.006418466567993164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02022290229797363</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6873691082000732</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.702444314956665</v>
+      </c>
+      <c r="F11" t="n">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Arson011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.003103256225585938</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.008373260498046875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4752120971679688</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4933676719665527</v>
+      </c>
+      <c r="F12" t="n">
+        <v>42.24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Arson016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00290226936340332</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.009632110595703125</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4458167552947998</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5011355876922607</v>
+      </c>
+      <c r="F13" t="n">
+        <v>59.87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arson018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01074576377868652</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01360511779785156</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1973621845245361</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2039666175842285</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Arson022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01122570037841797</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.00343632698059082</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.427773237228394</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.432114124298096</v>
+      </c>
+      <c r="F15" t="n">
+        <v>288.02</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Arson035_x264.npy</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.002462863922119141</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01700758934020996</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2763462066650391</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2841866016387939</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47.95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arson041_x264.npy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002454042434692383</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01717519760131836</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8324263095855713</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8817710876464844</v>
+      </c>
+      <c r="F17" t="n">
+        <v>125.23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Assault006_x264.npy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.002246856689453125</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01342225074768066</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.397395372390747</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.40192699432373</v>
+      </c>
+      <c r="F18" t="n">
+        <v>269.87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Assault010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.002194404602050781</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01755189895629883</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.388671875</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.431203603744507</v>
+      </c>
+      <c r="F19" t="n">
+        <v>539.36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Assault011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01302433013916016</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02699422836303711</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5400393009185791</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5521817207336426</v>
+      </c>
+      <c r="F20" t="n">
+        <v>76.37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Burglary005_x264.npy</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02408599853515625</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03581619262695312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.709270477294922</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.785628318786621</v>
+      </c>
+      <c r="F21" t="n">
+        <v>258.08</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Burglary017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.008883476257324219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01560020446777344</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5960824489593506</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6040704250335693</v>
+      </c>
+      <c r="F22" t="n">
+        <v>70.43000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Burglary018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01194334030151367</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.03444433212280273</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4458966255187988</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.454927921295166</v>
+      </c>
+      <c r="F23" t="n">
+        <v>37.54</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Burglary021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.005821466445922852</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01503419876098633</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3229098320007324</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3394854068756104</v>
+      </c>
+      <c r="F24" t="n">
+        <v>51.28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Burglary024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.01192927360534668</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01816248893737793</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8232450485229492</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8730964660644531</v>
+      </c>
+      <c r="F25" t="n">
+        <v>120.29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Burglary032_x264.npy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0127565860748291</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01927804946899414</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.961245059967041</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.971488952636719</v>
+      </c>
+      <c r="F26" t="n">
+        <v>526.55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Burglary033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.002079010009765625</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01364803314208984</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2534382343292236</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2660939693450928</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42.03</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Burglary035_x264.npy</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.001993656158447266</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01506328582763672</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7421920299530029</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7516586780548096</v>
+      </c>
+      <c r="F28" t="n">
+        <v>135.05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Burglary037_x264.npy</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.008291482925415039</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.009894132614135742</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2629058361053467</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2834930419921875</v>
+      </c>
+      <c r="F29" t="n">
+        <v>64.09999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Burglary061_x264.npy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01460170745849609</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01156330108642578</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.452575922012329</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.458897829055786</v>
+      </c>
+      <c r="F30" t="n">
+        <v>299.67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Burglary076_x264.npy</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.003041267395019531</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01668977737426758</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.146095037460327</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.157669544219971</v>
+      </c>
+      <c r="F31" t="n">
+        <v>430.79</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Burglary079_x264.npy</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.004893779754638672</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01368808746337891</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.587050199508667</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.602281093597412</v>
+      </c>
+      <c r="F32" t="n">
+        <v>495.13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Burglary092_x264.npy</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.002999305725097656</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01854801177978516</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2209722995758057</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2384402751922607</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Explosion002_x264.npy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.003017425537109375</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0115199089050293</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6394715309143066</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6471264362335205</v>
+      </c>
+      <c r="F34" t="n">
+        <v>133.77</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Explosion004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.007798910140991211</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01012277603149414</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4345400333404541</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4483511447906494</v>
+      </c>
+      <c r="F35" t="n">
+        <v>63.53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Explosion007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.008108854293823242</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.779150009155273</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.800935745239258</v>
+      </c>
+      <c r="F36" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Explosion008_x264.npy</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.004346370697021484</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01258063316345215</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4171943664550781</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4494214057922363</v>
+      </c>
+      <c r="F37" t="n">
+        <v>58.39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Explosion010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.002046823501586914</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00959014892578125</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5354743003845215</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5773835182189941</v>
+      </c>
+      <c r="F38" t="n">
+        <v>83.27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Explosion011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.007316350936889648</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.009614467620849609</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4342823028564453</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4496023654937744</v>
+      </c>
+      <c r="F39" t="n">
+        <v>52.38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Explosion013_x264.npy</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.008714199066162109</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.009496927261352539</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.6664581298828125</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6781730651855469</v>
+      </c>
+      <c r="F40" t="n">
+        <v>110.57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Explosion016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.006151676177978516</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01345229148864746</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3604815006256104</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.3875534534454346</v>
+      </c>
+      <c r="F41" t="n">
+        <v>32.16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Explosion017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.01987838745117188</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0314936637878418</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3101754188537598</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.3177745342254639</v>
+      </c>
+      <c r="F42" t="n">
+        <v>54.81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Explosion020_x264.npy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01147556304931641</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.003561019897460938</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3337528705596924</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.3481152057647705</v>
+      </c>
+      <c r="F43" t="n">
+        <v>43.07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Explosion021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.002000093460083008</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01418614387512207</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.3163802623748779</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3236289024353027</v>
+      </c>
+      <c r="F44" t="n">
+        <v>26.24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Explosion022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01097345352172852</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01607728004455566</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.727386474609375</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7758758068084717</v>
+      </c>
+      <c r="F45" t="n">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Explosion025_x264.npy</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.00211024284362793</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01472020149230957</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.2324464321136475</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2470242977142334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Explosion027_x264.npy</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.003248691558837891</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02065324783325195</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.2109513282775879</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2197072505950928</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Explosion028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.01108384132385254</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.08154201507568359</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.3438119888305664</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.3665251731872559</v>
+      </c>
+      <c r="F48" t="n">
+        <v>56.92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Explosion029_x264.npy</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.008336305618286133</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.008718967437744141</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5011360645294189</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.520707368850708</v>
+      </c>
+      <c r="F49" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Explosion033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.002045631408691406</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01590204238891602</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6225416660308838</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6284182071685791</v>
+      </c>
+      <c r="F50" t="n">
+        <v>105.21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Explosion035_x264.npy</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.003031015396118164</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01430940628051758</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5326259136199951</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.537182092666626</v>
+      </c>
+      <c r="F51" t="n">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Explosion036_x264.npy</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.006004095077514648</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01008749008178711</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9962880611419678</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.009080171585083</v>
+      </c>
+      <c r="F52" t="n">
+        <v>177.61</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Explosion039_x264.npy</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.006615638732910156</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.360170841217041</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4037191867828369</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Explosion043_x264.npy</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.01255011558532715</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.02160763740539551</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.354295015335083</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.367785453796387</v>
+      </c>
+      <c r="F54" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fighting003_x264.npy</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.006658315658569336</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.009327173233032227</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.6316165924072266</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6513140201568604</v>
+      </c>
+      <c r="F55" t="n">
+        <v>103.44</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fighting018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.003392219543457031</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01523303985595703</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4503428936004639</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.4586379528045654</v>
+      </c>
+      <c r="F56" t="n">
+        <v>46.37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Fighting033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.003288507461547852</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01575636863708496</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2438013553619385</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2715010643005371</v>
+      </c>
+      <c r="F57" t="n">
+        <v>36.89</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fighting042_x264.npy</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.003110885620117188</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.007472753524780273</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5497689247131348</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5672290325164795</v>
+      </c>
+      <c r="F58" t="n">
+        <v>74.59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Fighting047_x264.npy</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.008372783660888672</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.003961086273193359</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7396376132965088</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7566330432891846</v>
+      </c>
+      <c r="F59" t="n">
+        <v>148.69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RoadAccidents001_x264.npy</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.00406646728515625</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01411271095275879</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.2235605716705322</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2399370670318604</v>
+      </c>
+      <c r="F60" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RoadAccidents002_x264.npy</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01027011871337891</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.002657651901245117</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.2300128936767578</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2986774444580078</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RoadAccidents004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.004488468170166016</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01436209678649902</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2059578895568848</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2157363891601562</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RoadAccidents009_x264.npy</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.003464937210083008</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01240086555480957</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.2075786590576172</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2205708026885986</v>
+      </c>
+      <c r="F63" t="n">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RoadAccidents010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.007611989974975586</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.009468317031860352</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1931033134460449</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2074916362762451</v>
+      </c>
+      <c r="F64" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RoadAccidents011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.008558273315429688</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01549172401428223</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3759050369262695</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4013357162475586</v>
+      </c>
+      <c r="F65" t="n">
+        <v>71.97</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RoadAccidents012_x264.npy</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.008901357650756836</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.009181737899780273</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1788592338562012</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2008965015411377</v>
+      </c>
+      <c r="F66" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>RoadAccidents016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.003402948379516602</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01803445816040039</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.3595418930053711</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.3712649345397949</v>
+      </c>
+      <c r="F67" t="n">
+        <v>73.06999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RoadAccidents017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.006666660308837891</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01434731483459473</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2167010307312012</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.2355358600616455</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>RoadAccidents019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.01249837875366211</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.02566385269165039</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.1930418014526367</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.2404031753540039</v>
+      </c>
+      <c r="F69" t="n">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RoadAccidents020_x264.npy</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.001001119613647461</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01222324371337891</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.2564146518707275</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.2628540992736816</v>
+      </c>
+      <c r="F70" t="n">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>RoadAccidents021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.01056599617004395</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01307392120361328</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1891515254974365</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.195720911026001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>RoadAccidents022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.004150152206420898</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01333975791931152</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.3219375610351562</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.3334057331085205</v>
+      </c>
+      <c r="F72" t="n">
+        <v>23.87</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RoadAccidents121_x264.npy</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0225670337677002</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01617574691772461</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2872118949890137</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.3197166919708252</v>
+      </c>
+      <c r="F73" t="n">
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RoadAccidents122_x264.npy</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.00333714485168457</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0182647705078125</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.2825336456298828</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.3024249076843262</v>
+      </c>
+      <c r="F74" t="n">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RoadAccidents123_x264.npy</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.00351262092590332</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01477718353271484</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.2571530342102051</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.2710416316986084</v>
+      </c>
+      <c r="F75" t="n">
+        <v>33.53</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RoadAccidents124_x264.npy</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0030975341796875</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.007823705673217773</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.2767393589019775</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.2802565097808838</v>
+      </c>
+      <c r="F76" t="n">
+        <v>49.87</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>RoadAccidents125_x264.npy</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.007380485534667969</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01296544075012207</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.2546999454498291</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.2905921936035156</v>
+      </c>
+      <c r="F77" t="n">
+        <v>59.36</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RoadAccidents127_x264.npy</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.004594087600708008</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.008469581604003906</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.4622666835784912</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.4756636619567871</v>
+      </c>
+      <c r="F78" t="n">
+        <v>86.03</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RoadAccidents128_x264.npy</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.002007722854614258</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.01550030708312988</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.1877694129943848</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1981155872344971</v>
+      </c>
+      <c r="F79" t="n">
+        <v>19.26</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RoadAccidents131_x264.npy</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002861261367797852</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01592111587524414</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.2938854694366455</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.2999200820922852</v>
+      </c>
+      <c r="F80" t="n">
+        <v>50.83</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RoadAccidents132_x264.npy</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.007179737091064453</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01010799407958984</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.2741131782531738</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3086328506469727</v>
+      </c>
+      <c r="F81" t="n">
+        <v>62.36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RoadAccidents133_x264.npy</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.006078243255615234</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.01668977737426758</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.147817850112915</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.1536698341369629</v>
+      </c>
+      <c r="F82" t="n">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Robbery048_x264.npy</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.006894350051879883</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.008116960525512695</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.2232322692871094</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2396178245544434</v>
+      </c>
+      <c r="F83" t="n">
+        <v>47.03</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Robbery050_x264.npy</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.006307601928710938</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.01322841644287109</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.3691854476928711</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.3746066093444824</v>
+      </c>
+      <c r="F84" t="n">
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Robbery102_x264.npy</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.002173900604248047</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0211641788482666</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2813222408294678</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.2988941669464111</v>
+      </c>
+      <c r="F85" t="n">
+        <v>60.98</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Robbery106_x264.npy</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.008713006973266602</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.001881837844848633</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.2188200950622559</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.231358528137207</v>
+      </c>
+      <c r="F86" t="n">
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Robbery137_x264.npy</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.004505634307861328</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.005750417709350586</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.523036003112793</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.5619604587554932</v>
+      </c>
+      <c r="F87" t="n">
+        <v>73.17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Shooting002_x264.npy</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0533905029296875</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.03813743591308594</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.2155115604400635</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.2210166454315186</v>
+      </c>
+      <c r="F88" t="n">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Shooting004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.002424716949462891</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.009160518646240234</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3649990558624268</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.3998534679412842</v>
+      </c>
+      <c r="F89" t="n">
+        <v>59.79</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Shooting007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.00229334831237793</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01658892631530762</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.2372033596038818</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.2475788593292236</v>
+      </c>
+      <c r="F90" t="n">
+        <v>47.72</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Shooting008_x264.npy</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.002315282821655273</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.01582193374633789</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.2519049644470215</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2576560974121094</v>
+      </c>
+      <c r="F91" t="n">
+        <v>54.17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Shooting010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.002079248428344727</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01052522659301758</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5317051410675049</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.572645902633667</v>
+      </c>
+      <c r="F92" t="n">
+        <v>88.27</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Shooting011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.007638216018676758</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7672200202941895</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8600375652313232</v>
+      </c>
+      <c r="F93" t="n">
+        <v>133.48</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Shooting013_x264.npy</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.007385730743408203</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01626062393188477</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.2213802337646484</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2325150966644287</v>
+      </c>
+      <c r="F94" t="n">
+        <v>35.87</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Shooting015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.004073143005371094</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.004258394241333008</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3329248428344727</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3509736061096191</v>
+      </c>
+      <c r="F95" t="n">
+        <v>57.17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Shooting018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.01127791404724121</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.005714178085327148</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.345646858215332</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3620922565460205</v>
+      </c>
+      <c r="F96" t="n">
+        <v>60.04</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Shooting019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.005784034729003906</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.5207242965698242</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.6132757663726807</v>
+      </c>
+      <c r="F97" t="n">
+        <v>92.34</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Shooting021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.002284765243530273</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.01550626754760742</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.2533166408538818</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2677268981933594</v>
+      </c>
+      <c r="F98" t="n">
+        <v>42.67</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Shooting022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.008352041244506836</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.01113057136535645</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8782169818878174</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.907649040222168</v>
+      </c>
+      <c r="F99" t="n">
+        <v>151.94</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Shooting024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.01000738143920898</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.01654458045959473</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.6289269924163818</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6364216804504395</v>
+      </c>
+      <c r="F100" t="n">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Shooting026_x264.npy</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.01191473007202148</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.01164460182189941</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.3995087146759033</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.4093191623687744</v>
+      </c>
+      <c r="F101" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Shooting028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.007941246032714844</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.01076555252075195</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.3203415870666504</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3293435573577881</v>
+      </c>
+      <c r="F102" t="n">
+        <v>63.33</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Shooting032_x264.npy</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.008957624435424805</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.01228833198547363</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.097580671310425</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.111870288848877</v>
+      </c>
+      <c r="F103" t="n">
+        <v>722.77</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Shooting033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.00193476676940918</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.01630902290344238</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.7296266555786133</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.7372860908508301</v>
+      </c>
+      <c r="F104" t="n">
+        <v>121.05</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Shooting034_x264.npy</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.001993656158447266</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.01424312591552734</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.392869234085083</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.4244663715362549</v>
+      </c>
+      <c r="F105" t="n">
+        <v>47.06</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Shooting037_x264.npy</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.02464652061462402</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.02714157104492188</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.1814446449279785</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1898503303527832</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Shooting043_x264.npy</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.002992391586303711</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.01834774017333984</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.3103301525115967</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.3241400718688965</v>
+      </c>
+      <c r="F107" t="n">
+        <v>62.55</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Shooting046_x264.npy</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.002361774444580078</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.01235508918762207</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.002578258514404</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.00824236869812</v>
+      </c>
+      <c r="F108" t="n">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Shooting047_x264.npy</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.008900880813598633</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0122075080871582</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.300345182418823</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.354354381561279</v>
+      </c>
+      <c r="F109" t="n">
+        <v>276.23</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Shooting048_x264.npy</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.002950668334960938</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.02104783058166504</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6579980850219727</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.6697769165039062</v>
+      </c>
+      <c r="F110" t="n">
+        <v>91.39</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Shoplifting001_x264.npy</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.003104448318481445</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.01618146896362305</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.806185245513916</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.8173062801361084</v>
+      </c>
+      <c r="F111" t="n">
+        <v>144.88</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Shoplifting004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.001995086669921875</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.01243424415588379</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.19996190071106</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.211861371994019</v>
+      </c>
+      <c r="F112" t="n">
+        <v>222.48</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Shoplifting005_x264.npy</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.002329349517822266</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.01216912269592285</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.7076718807220459</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.776923656463623</v>
+      </c>
+      <c r="F113" t="n">
+        <v>65.56999999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Shoplifting007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.00313258171081543</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.01801013946533203</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.036279201507568</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.040230274200439</v>
+      </c>
+      <c r="F114" t="n">
+        <v>170.8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Shoplifting010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.002116203308105469</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.01865863800048828</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6111583709716797</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.6174812316894531</v>
+      </c>
+      <c r="F115" t="n">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Shoplifting015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.001995086669921875</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.02572369575500488</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.4331386089324951</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4443740844726562</v>
+      </c>
+      <c r="F116" t="n">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Shoplifting016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.00334620475769043</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.01439642906188965</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4268035888671875</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4623622894287109</v>
+      </c>
+      <c r="F117" t="n">
+        <v>49.47</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Shoplifting017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.00687861442565918</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.2166059017181396</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.2313179969787598</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Shoplifting020_x264.npy</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.006989002227783203</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.01328158378601074</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.9824624061584473</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.9995315074920654</v>
+      </c>
+      <c r="F119" t="n">
+        <v>192.37</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Shoplifting021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.008008241653442383</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.003271341323852539</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.6431522369384766</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.6834750175476074</v>
+      </c>
+      <c r="F120" t="n">
+        <v>118.41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Shoplifting022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.001996278762817383</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.01672697067260742</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.3502509593963623</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.3629701137542725</v>
+      </c>
+      <c r="F121" t="n">
+        <v>73.06999999999999</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Shoplifting027_x264.npy</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.006850004196166992</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.009159088134765625</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.369429349899292</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.3751342296600342</v>
+      </c>
+      <c r="F122" t="n">
+        <v>62.47</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Shoplifting028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.0101616382598877</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0009961128234863281</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.3154761791229248</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.332186222076416</v>
+      </c>
+      <c r="F123" t="n">
+        <v>45.28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Shoplifting029_x264.npy</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.00299382209777832</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.01171755790710449</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4236602783203125</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4288511276245117</v>
+      </c>
+      <c r="F124" t="n">
+        <v>72.56</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Shoplifting031_x264.npy</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.009177923202514648</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.01334905624389648</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.2092111110687256</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.2134339809417725</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Shoplifting033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.002648591995239258</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.02048087120056152</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.3377478122711182</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.3969950675964355</v>
+      </c>
+      <c r="F126" t="n">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Shoplifting034_x264.npy</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.02277135848999023</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.0200958251953125</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.098910331726074</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.107850313186646</v>
+      </c>
+      <c r="F127" t="n">
+        <v>397.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Shoplifting037_x264.npy</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.005854368209838867</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.009587287902832031</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4132041931152344</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4234201908111572</v>
+      </c>
+      <c r="F128" t="n">
+        <v>46.22</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Shoplifting039_x264.npy</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0009977817535400391</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.01377415657043457</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6588599681854248</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.6637723445892334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>93.45999999999999</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Shoplifting044_x264.npy</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.002312421798706055</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.01212906837463379</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.523654460906982</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.534275770187378</v>
+      </c>
+      <c r="F130" t="n">
+        <v>485.17</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Shoplifting049_x264.npy</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.007650375366210938</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.009514570236206055</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.482548713684082</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5090477466583252</v>
+      </c>
+      <c r="F131" t="n">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Stealing019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.002053499221801758</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.009904623031616211</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.8648765087127686</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.9164323806762695</v>
+      </c>
+      <c r="F132" t="n">
+        <v>163.76</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Stealing036_x264.npy</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.002152919769287109</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.01658511161804199</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4382967948913574</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4551246166229248</v>
+      </c>
+      <c r="F133" t="n">
+        <v>84.39</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Stealing058_x264.npy</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.00392913818359375</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.01483678817749023</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.8452842235565186</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.8560500144958496</v>
+      </c>
+      <c r="F134" t="n">
+        <v>166.39</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Stealing062_x264.npy</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.003155946731567383</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.01060104370117188</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.28721022605896</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2923922538757324</v>
+      </c>
+      <c r="F135" t="n">
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Stealing079_x264.npy</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.002210378646850586</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.01488232612609863</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.9998815059661865</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.030232429504395</v>
+      </c>
+      <c r="F136" t="n">
+        <v>195.06</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Vandalism007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.002150774002075195</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.0120246410369873</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.2095952033996582</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.2134451866149902</v>
+      </c>
+      <c r="F137" t="n">
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Vandalism015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.004576444625854492</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.01501679420471191</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.6103091239929199</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.6148808002471924</v>
+      </c>
+      <c r="F138" t="n">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Vandalism017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.0009980201721191406</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.01692843437194824</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2043447494506836</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.2104394435882568</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33.82</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Vandalism028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.002991914749145508</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.01227641105651855</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.7568187713623047</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.8016030788421631</v>
+      </c>
+      <c r="F140" t="n">
+        <v>149.94</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Vandalism036_x264.npy</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.002703428268432617</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.009527444839477539</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.2738218307495117</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.2890274524688721</v>
+      </c>
+      <c r="F141" t="n">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Normal_Videos_003_x264.npy</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.006592035293579102</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.003531694412231445</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5853064060211182</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.619086742401123</v>
+      </c>
+      <c r="F142" t="n">
+        <v>94.11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Normal_Videos_006_x264.npy</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.002347707748413086</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.009591341018676758</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1810722351074219</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.1891863346099854</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Normal_Videos_010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.008115291595458984</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0107882022857666</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.3115401268005371</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.3227334022521973</v>
+      </c>
+      <c r="F144" t="n">
+        <v>35.14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Normal_Videos_014_x264.npy</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.008550167083740234</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.01111221313476562</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.2502632141113281</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.2629969120025635</v>
+      </c>
+      <c r="F145" t="n">
+        <v>50.04</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Normal_Videos_015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.002300262451171875</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.01106953620910645</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.1797323226928711</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.1886262893676758</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Normal_Videos_018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.008974790573120117</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.009987592697143555</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.2885596752166748</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.2972335815429688</v>
+      </c>
+      <c r="F147" t="n">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Normal_Videos_019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.003048896789550781</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.01293635368347168</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.5917732715606689</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5971879959106445</v>
+      </c>
+      <c r="F148" t="n">
+        <v>94.84</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Normal_Videos_024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.002062082290649414</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.01290774345397949</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.2966904640197754</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.3045914173126221</v>
+      </c>
+      <c r="F149" t="n">
+        <v>35.95</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Normal_Videos_025_x264.npy</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.007040500640869141</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.01134037971496582</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1495456695556641</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1963973045349121</v>
+      </c>
+      <c r="F150" t="n">
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Normal_Videos_027_x264.npy</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00336003303527832</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.007604837417602539</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.846118688583374</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.8612780570983887</v>
+      </c>
+      <c r="F151" t="n">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Normal_Videos_033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.002995729446411133</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.01501059532165527</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.3150215148925781</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.3257629871368408</v>
+      </c>
+      <c r="F152" t="n">
+        <v>56.03</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Normal_Videos_034_x264.npy</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.003852367401123047</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.009138107299804688</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.2085752487182617</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.2212224006652832</v>
+      </c>
+      <c r="F153" t="n">
+        <v>43.98</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Normal_Videos_041_x264.npy</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.008266210556030273</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.01014089584350586</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.2790586948394775</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.2894518375396729</v>
+      </c>
+      <c r="F154" t="n">
+        <v>42.38</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Normal_Videos_042_x264.npy</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.007080316543579102</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0101466178894043</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.6498701572418213</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.6611335277557373</v>
+      </c>
+      <c r="F155" t="n">
+        <v>105.21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Normal_Videos_048_x264.npy</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.006748676300048828</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.2826356887817383</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.3193423748016357</v>
+      </c>
+      <c r="F156" t="n">
+        <v>55.62</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Normal_Videos_050_x264.npy</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.003371000289916992</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.005919933319091797</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.6623363494873047</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.6990315914154053</v>
+      </c>
+      <c r="F157" t="n">
+        <v>139.95</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Normal_Videos_051_x264.npy</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.005498647689819336</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.009511470794677734</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.3658485412597656</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.3711740970611572</v>
+      </c>
+      <c r="F158" t="n">
+        <v>78.65000000000001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Normal_Videos_056_x264.npy</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.002744436264038086</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.01490092277526855</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2456262111663818</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.2554147243499756</v>
+      </c>
+      <c r="F159" t="n">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Normal_Videos_059_x264.npy</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.002498149871826172</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.008144140243530273</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.2812914848327637</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.2865085601806641</v>
+      </c>
+      <c r="F160" t="n">
+        <v>61.29</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Normal_Videos_063_x264.npy</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.00775909423828125</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.00856328010559082</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1846632957458496</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.220564603805542</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Normal_Videos_067_x264.npy</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.00354313850402832</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.02048563957214355</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.2225322723388672</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.2309737205505371</v>
+      </c>
+      <c r="F162" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Normal_Videos_070_x264.npy</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.004750251770019531</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.01567840576171875</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.2281420230865479</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.2397093772888184</v>
+      </c>
+      <c r="F163" t="n">
+        <v>33.16</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Normal_Videos_100_x264.npy</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.001763582229614258</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.01470422744750977</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.2828030586242676</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.2984826564788818</v>
+      </c>
+      <c r="F164" t="n">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Normal_Videos_129_x264.npy</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.004986763000488281</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.008186578750610352</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.1519474983215332</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.1627151966094971</v>
+      </c>
+      <c r="F165" t="n">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Normal_Videos_150_x264.npy</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.002414703369140625</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.01654720306396484</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3136627674102783</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3218510150909424</v>
+      </c>
+      <c r="F166" t="n">
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Normal_Videos_168_x264.npy</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.002077579498291016</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0126798152923584</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.4010617733001709</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.4126577377319336</v>
+      </c>
+      <c r="F167" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Normal_Videos_175_x264.npy</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.004366874694824219</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.01725888252258301</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.501878023147583</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.507511615753174</v>
+      </c>
+      <c r="F168" t="n">
+        <v>294.96</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Normal_Videos_182_x264.npy</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.003655195236206055</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.0167694091796875</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.7034220695495605</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.7115476131439209</v>
+      </c>
+      <c r="F169" t="n">
+        <v>136.51</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Normal_Videos_189_x264.npy</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.005486965179443359</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.008087635040283203</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.150043249130249</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.1663670539855957</v>
+      </c>
+      <c r="F170" t="n">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Normal_Videos_196_x264.npy</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.006448745727539062</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.01011133193969727</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.3445568084716797</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3524320125579834</v>
+      </c>
+      <c r="F171" t="n">
+        <v>66.83</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Normal_Videos_203_x264.npy</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.006464481353759766</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0007507801055908203</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4338126182556152</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.448897123336792</v>
+      </c>
+      <c r="F172" t="n">
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Normal_Videos_210_x264.npy</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.003389358520507812</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.01428055763244629</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.8884851932525635</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.9028818607330322</v>
+      </c>
+      <c r="F173" t="n">
+        <v>180.33</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Normal_Videos_217_x264.npy</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.003312110900878906</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.01790022850036621</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3037519454956055</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3172805309295654</v>
+      </c>
+      <c r="F174" t="n">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Normal_Videos_224_x264.npy</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.007925033569335938</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.008653402328491211</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.14915657043457</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.1686692237854</v>
+      </c>
+      <c r="F175" t="n">
+        <v>231.97</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Normal_Videos_246_x264.npy</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.007841348648071289</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.01690554618835449</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.8053340911865234</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.8140599727630615</v>
+      </c>
+      <c r="F176" t="n">
+        <v>166.46</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Normal_Videos_247_x264.npy</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.007304906845092773</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.006471872329711914</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.306127786636353</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.311964273452759</v>
+      </c>
+      <c r="F177" t="n">
+        <v>273.74</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Normal_Videos_248_x264.npy</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.002991199493408203</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.009071588516235352</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.2198784351348877</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.231534481048584</v>
+      </c>
+      <c r="F178" t="n">
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Normal_Videos_251_x264.npy</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.002991914749145508</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.01021981239318848</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.1832132339477539</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.1993610858917236</v>
+      </c>
+      <c r="F179" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Normal_Videos_289_x264.npy</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.004996299743652344</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.008120298385620117</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1298556327819824</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.1389634609222412</v>
+      </c>
+      <c r="F180" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Normal_Videos_310_x264.npy</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.002031564712524414</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.009406089782714844</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.4683923721313477</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.4810097217559814</v>
+      </c>
+      <c r="F181" t="n">
+        <v>83.98999999999999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Normal_Videos_312_x264.npy</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.002997159957885742</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.01015925407409668</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.3102269172668457</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.3201072216033936</v>
+      </c>
+      <c r="F182" t="n">
+        <v>42.03</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Normal_Videos_317_x264.npy</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.002346992492675781</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.01575589179992676</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.2258150577545166</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.2314715385437012</v>
+      </c>
+      <c r="F183" t="n">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Normal_Videos_345_x264.npy</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.003167867660522461</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.01659250259399414</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.174302339553833</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.1863031387329102</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Normal_Videos_352_x264.npy</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.002646446228027344</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.02202153205871582</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.9790604114532471</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.9948108196258545</v>
+      </c>
+      <c r="F185" t="n">
+        <v>180.14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Normal_Videos_360_x264.npy</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.002125263214111328</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.01209163665771484</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.187227725982666</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.1945638656616211</v>
+      </c>
+      <c r="F186" t="n">
+        <v>32.83</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Normal_Videos_365_x264.npy</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.004124879837036133</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.008912801742553711</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.139235734939575</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.143272399902344</v>
+      </c>
+      <c r="F187" t="n">
+        <v>220.96</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Normal_Videos_401_x264.npy</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.005706787109375</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.009544849395751953</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2593159675598145</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.2676370143890381</v>
+      </c>
+      <c r="F188" t="n">
+        <v>54.24</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Normal_Videos_417_x264.npy</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.002991914749145508</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.01158666610717773</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.2330403327941895</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.2441329956054688</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Normal_Videos_439_x264.npy</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.001877546310424805</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.008864879608154297</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.7043631076812744</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.7115268707275391</v>
+      </c>
+      <c r="F190" t="n">
+        <v>140.9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Normal_Videos_452_x264.npy</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.002995729446411133</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.01127338409423828</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1541218757629395</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.1716141700744629</v>
+      </c>
+      <c r="F191" t="n">
+        <v>14.84</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Normal_Videos_453_x264.npy</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.001994609832763672</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.01664161682128906</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.8747124671936035</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.8953864574432373</v>
+      </c>
+      <c r="F192" t="n">
+        <v>177.42</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Normal_Videos_478_x264.npy</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.004797220230102539</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.01049184799194336</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.7022521495819092</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.7173948287963867</v>
+      </c>
+      <c r="F193" t="n">
+        <v>150.07</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Normal_Videos_576_x264.npy</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.002079486846923828</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.01239204406738281</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.998366594314575</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.009860038757324</v>
+      </c>
+      <c r="F194" t="n">
+        <v>375.89</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Normal_Videos_597_x264.npy</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.001952171325683594</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.01204514503479004</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.5652048587799072</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.5823249816894531</v>
+      </c>
+      <c r="F195" t="n">
+        <v>74.34999999999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Normal_Videos_603_x264.npy</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.002394199371337891</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.01591873168945312</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.6649761199951172</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.6749839782714844</v>
+      </c>
+      <c r="F196" t="n">
+        <v>109.27</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Normal_Videos_606_x264.npy</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.00451970100402832</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.01030993461608887</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.3181266784667969</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.3359365463256836</v>
+      </c>
+      <c r="F197" t="n">
+        <v>41.15</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Normal_Videos_621_x264.npy</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.00299072265625</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.01405835151672363</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.9284396171569824</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.941148042678833</v>
+      </c>
+      <c r="F198" t="n">
+        <v>160.08</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Normal_Videos_634_x264.npy</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.003027200698852539</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.01280426979064941</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.513585805892944</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.525639772415161</v>
+      </c>
+      <c r="F199" t="n">
+        <v>448.68</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Normal_Videos_641_x264.npy</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.002420902252197266</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0198819637298584</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.5865509510040283</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.5980119705200195</v>
+      </c>
+      <c r="F200" t="n">
+        <v>120.23</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Normal_Videos_656_x264.npy</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.007396459579467773</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.01162815093994141</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.3144960403442383</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.3680071830749512</v>
+      </c>
+      <c r="F201" t="n">
+        <v>60.56</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Normal_Videos_686_x264.npy</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.002493381500244141</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.01432681083679199</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.4140195846557617</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.4246430397033691</v>
+      </c>
+      <c r="F202" t="n">
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Normal_Videos_696_x264.npy</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.003267765045166016</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.01427292823791504</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.7265586853027344</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.7350451946258545</v>
+      </c>
+      <c r="F203" t="n">
+        <v>120.86</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Normal_Videos_702_x264.npy</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.002202272415161133</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.008193016052246094</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5333445072174072</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.5381052494049072</v>
+      </c>
+      <c r="F204" t="n">
+        <v>84.13</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Normal_Videos_704_x264.npy</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.002082347869873047</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.01261687278747559</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3267703056335449</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.3366668224334717</v>
+      </c>
+      <c r="F205" t="n">
+        <v>56.48</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Normal_Videos_710_x264.npy</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.002290964126586914</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.01015186309814453</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.3177556991577148</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.3279290199279785</v>
+      </c>
+      <c r="F206" t="n">
+        <v>59.98</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Normal_Videos_717_x264.npy</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.006982564926147461</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.009198904037475586</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1993083953857422</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2159109115600586</v>
+      </c>
+      <c r="F207" t="n">
+        <v>41.91</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Normal_Videos_722_x264.npy</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.002991437911987305</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.00962066650390625</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.349022150039673</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.369928598403931</v>
+      </c>
+      <c r="F208" t="n">
+        <v>291.04</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Normal_Videos_725_x264.npy</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.002464056015014648</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.01499772071838379</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.2174117565155029</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2241549491882324</v>
+      </c>
+      <c r="F209" t="n">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Normal_Videos_745_x264.npy</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.002016067504882812</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.01461410522460938</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.2289249897003174</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.2439002990722656</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Normal_Videos_758_x264.npy</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.001858949661254883</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.01309561729431152</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.2897098064422607</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.2991430759429932</v>
+      </c>
+      <c r="F211" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Normal_Videos_778_x264.npy</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.007784843444824219</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1965224742889404</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.2115161418914795</v>
+      </c>
+      <c r="F212" t="n">
+        <v>42.12</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Normal_Videos_780_x264.npy</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.005238771438598633</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.01009583473205566</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.4862799644470215</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.5064051151275635</v>
+      </c>
+      <c r="F213" t="n">
+        <v>67.43000000000001</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Normal_Videos_781_x264.npy</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.00998687744140625</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.01274752616882324</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.7130920886993408</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.7474846839904785</v>
+      </c>
+      <c r="F214" t="n">
+        <v>132.56</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Normal_Videos_782_x264.npy</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.005263328552246094</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.01117420196533203</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.9409210681915283</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.9539484977722168</v>
+      </c>
+      <c r="F215" t="n">
+        <v>184.83</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Normal_Videos_783_x264.npy</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.004360675811767578</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.00801396369934082</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.763030290603638</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.768381357192993</v>
+      </c>
+      <c r="F216" t="n">
+        <v>319.72</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Normal_Videos_798_x264.npy</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.00425410270690918</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.009328365325927734</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.21466064453125</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.229790449142456</v>
+      </c>
+      <c r="F217" t="n">
+        <v>200.03</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Normal_Videos_801_x264.npy</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.003105878829956055</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.01238489151000977</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.5909240245819092</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.5990889072418213</v>
+      </c>
+      <c r="F218" t="n">
+        <v>91.48999999999999</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Normal_Videos_828_x264.npy</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.002381563186645508</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.00926518440246582</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.1847939491271973</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.1965088844299316</v>
+      </c>
+      <c r="F219" t="n">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Normal_Videos_831_x264.npy</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.002029657363891602</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.010101318359375</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1959691047668457</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.2042639255523682</v>
+      </c>
+      <c r="F220" t="n">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Normal_Videos_866_x264.npy</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.002316951751708984</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.01385760307312012</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.2012128829956055</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.2065720558166504</v>
+      </c>
+      <c r="F221" t="n">
+        <v>39.98</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Normal_Videos_867_x264.npy</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.003076791763305664</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.007404804229736328</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.1114294528961182</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.123847484588623</v>
+      </c>
+      <c r="F222" t="n">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Normal_Videos_868_x264.npy</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.002470016479492188</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.006645679473876953</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.4661657810211182</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.4765987396240234</v>
+      </c>
+      <c r="F223" t="n">
+        <v>80.09</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Normal_Videos_869_x264.npy</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.002664566040039062</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.01764178276062012</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.4256570339202881</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.4338865280151367</v>
+      </c>
+      <c r="F224" t="n">
+        <v>80.09</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Normal_Videos_870_x264.npy</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.002093791961669922</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.01538896560668945</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.1316254138946533</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.143944263458252</v>
+      </c>
+      <c r="F225" t="n">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Normal_Videos_871_x264.npy</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.001817703247070312</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.01799964904785156</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.7721407413482666</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.7883315086364746</v>
+      </c>
+      <c r="F226" t="n">
+        <v>145.31</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Normal_Videos_872_x264.npy</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.002538442611694336</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.01054883003234863</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.09864401817321777</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1080770492553711</v>
+      </c>
+      <c r="F227" t="n">
+        <v>17.67</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Normal_Videos_873_x264.npy</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.002189397811889648</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.01370692253112793</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.2872471809387207</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.295466423034668</v>
+      </c>
+      <c r="F228" t="n">
+        <v>60.03</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Normal_Videos_874_x264.npy</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.007205486297607422</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.01073527336120605</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.7607467174530029</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.8254945278167725</v>
+      </c>
+      <c r="F229" t="n">
+        <v>140.91</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Normal_Videos_875_x264.npy</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.002078533172607422</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.01008749008178711</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.4984710216522217</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.5162246227264404</v>
+      </c>
+      <c r="F230" t="n">
+        <v>85.52</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Normal_Videos_876_x264.npy</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.009845495223999023</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.01313185691833496</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.07472991943359375</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.08934164047241211</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Normal_Videos_877_x264.npy</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.003557205200195312</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.01017618179321289</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.625403881072998</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.634329795837402</v>
+      </c>
+      <c r="F232" t="n">
+        <v>334.18</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Normal_Videos_878_x264.npy</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.002491474151611328</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.01118969917297363</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1815767288208008</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.1899197101593018</v>
+      </c>
+      <c r="F233" t="n">
+        <v>9.369999999999999</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Normal_Videos_879_x264.npy</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.002026796340942383</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.009139299392700195</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.2519428730010986</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.2600357532501221</v>
+      </c>
+      <c r="F234" t="n">
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Normal_Videos_880_x264.npy</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.001427888870239258</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.01023197174072266</v>
+      </c>
+      <c r="D235" t="n">
+        <v>3.227867364883423</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3.243103742599487</v>
+      </c>
+      <c r="F235" t="n">
+        <v>601.84</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Normal_Videos_881_x264.npy</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.00471186637878418</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.002538681030273438</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.176978588104248</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1938004493713379</v>
+      </c>
+      <c r="F236" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Normal_Videos_882_x264.npy</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.004217624664306641</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.009130239486694336</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.3859257698059082</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.4128329753875732</v>
+      </c>
+      <c r="F237" t="n">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Normal_Videos_883_x264.npy</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.001995086669921875</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.01420903205871582</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1977267265319824</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.2092113494873047</v>
+      </c>
+      <c r="F238" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Normal_Videos_884_x264.npy</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.002991437911987305</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.01502704620361328</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.459381341934204</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.462399244308472</v>
+      </c>
+      <c r="F239" t="n">
+        <v>301.13</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Normal_Videos_885_x264.npy</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.002038717269897461</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.01323342323303223</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.1541945934295654</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.1665129661560059</v>
+      </c>
+      <c r="F240" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Normal_Videos_886_x264.npy</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.00253605842590332</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.01022696495056152</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.6566669940948486</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.671262264251709</v>
+      </c>
+      <c r="F241" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Normal_Videos_887_x264.npy</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.002653121948242188</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.01949119567871094</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.362499237060547</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.369453191757202</v>
+      </c>
+      <c r="F242" t="n">
+        <v>254.38</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Normal_Videos_888_x264.npy</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.00267791748046875</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.01110267639160156</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.174793004989624</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.1831302642822266</v>
+      </c>
+      <c r="F243" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Normal_Videos_889_x264.npy</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.002706766128540039</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.0173790454864502</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.1876900196075439</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.2012183666229248</v>
+      </c>
+      <c r="F244" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Normal_Videos_890_x264.npy</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.003185749053955078</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.008224964141845703</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7173206806182861</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.7225246429443359</v>
+      </c>
+      <c r="F245" t="n">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Normal_Videos_891_x264.npy</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.002022504806518555</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.01773881912231445</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.5049192905426025</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.5099058151245117</v>
+      </c>
+      <c r="F246" t="n">
+        <v>60.02</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Normal_Videos_892_x264.npy</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.002411127090454102</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.01608538627624512</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5265393257141113</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.5375547409057617</v>
+      </c>
+      <c r="F247" t="n">
+        <v>59.03</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Normal_Videos_893_x264.npy</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.002991914749145508</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.01668119430541992</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.9781191349029541</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.9969744682312012</v>
+      </c>
+      <c r="F248" t="n">
+        <v>212.51</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Normal_Videos_894_x264.npy</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.002995014190673828</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.01448273658752441</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.486234188079834</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.48974609375</v>
+      </c>
+      <c r="F249" t="n">
+        <v>85.87</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Normal_Videos_895_x264.npy</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.002584934234619141</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.005773067474365234</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.5967955589294434</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.637948751449585</v>
+      </c>
+      <c r="F250" t="n">
+        <v>101.03</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Normal_Videos_896_x264.npy</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.003024578094482422</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.01009440422058105</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.4729263782501221</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.4837174415588379</v>
+      </c>
+      <c r="F251" t="n">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Normal_Videos_897_x264.npy</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.007857799530029297</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.001993417739868164</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.366769552230835</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.3813674449920654</v>
+      </c>
+      <c r="F252" t="n">
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Normal_Videos_898_x264.npy</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.002401828765869141</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.01199507713317871</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.2733299732208252</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.2870879173278809</v>
+      </c>
+      <c r="F253" t="n">
+        <v>33.55</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Normal_Videos_899_x264.npy</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.005384922027587891</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.009591817855834961</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.4155385494232178</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.422687292098999</v>
+      </c>
+      <c r="F254" t="n">
+        <v>46.05</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Normal_Videos_900_x264.npy</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.001921415328979492</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.02020525932312012</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.3086342811584473</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.3169293403625488</v>
+      </c>
+      <c r="F255" t="n">
+        <v>48.58</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Normal_Videos_901_x264.npy</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.003054141998291016</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.01367855072021484</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.2904191017150879</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.2959098815917969</v>
+      </c>
+      <c r="F256" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Normal_Videos_902_x264.npy</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.004728078842163086</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.0102081298828125</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.3665056228637695</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.3719079494476318</v>
+      </c>
+      <c r="F257" t="n">
+        <v>46.13</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Normal_Videos_903_x264.npy</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.002081155776977539</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.0140078067779541</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.2075445652008057</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.2156162261962891</v>
+      </c>
+      <c r="F258" t="n">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Normal_Videos_904_x264.npy</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.008384466171264648</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.01008725166320801</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2910676002502441</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.3071525096893311</v>
+      </c>
+      <c r="F259" t="n">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Normal_Videos_905_x264.npy</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.0236971378326416</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.01454544067382812</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2586219310760498</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.2715356349945068</v>
+      </c>
+      <c r="F260" t="n">
+        <v>39.87</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Normal_Videos_906_x264.npy</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.004424095153808594</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1975502967834473</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.2159175872802734</v>
+      </c>
+      <c r="F261" t="n">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Normal_Videos_907_x264.npy</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.004287004470825195</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.01039600372314453</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1638224124908447</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.1784272193908691</v>
+      </c>
+      <c r="F262" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Normal_Videos_908_x264.npy</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.002378702163696289</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.009091615676879883</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2764823436737061</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.2846643924713135</v>
+      </c>
+      <c r="F263" t="n">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Normal_Videos_909_x264.npy</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.007204532623291016</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.009778261184692383</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.2777099609375</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.2820203304290771</v>
+      </c>
+      <c r="F264" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Normal_Videos_910_x264.npy</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.001501083374023438</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.01671028137207031</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.1737711429595947</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.1799025535583496</v>
+      </c>
+      <c r="F265" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Normal_Videos_911_x264.npy</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.003506898880004883</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.01010298728942871</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.2247684001922607</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.2351586818695068</v>
+      </c>
+      <c r="F266" t="n">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Normal_Videos_912_x264.npy</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.00302577018737793</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.008128166198730469</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.2002677917480469</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.2171380519866943</v>
+      </c>
+      <c r="F267" t="n">
+        <v>24.87</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Normal_Videos_913_x264.npy</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.003265380859375</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.01603269577026367</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.1687808036804199</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.1794857978820801</v>
+      </c>
+      <c r="F268" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Normal_Videos_914_x264.npy</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.002992153167724609</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.01843643188476562</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.2575502395629883</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.2668216228485107</v>
+      </c>
+      <c r="F269" t="n">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Normal_Videos_915_x264.npy</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.002993345260620117</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.008565187454223633</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.2204680442810059</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.2291138172149658</v>
+      </c>
+      <c r="F270" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Normal_Videos_923_x264.npy</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.003219366073608398</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.007500886917114258</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.402408123016357</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3.410371065139771</v>
+      </c>
+      <c r="F271" t="n">
+        <v>607.54</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Normal_Videos_924_x264.npy</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.006765365600585938</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.004034042358398438</v>
+      </c>
+      <c r="D272" t="n">
+        <v>119.9117879867554</v>
+      </c>
+      <c r="E272" t="n">
+        <v>120.8339879512787</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3600.03</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Normal_Videos_925_x264.npy</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.7532010078430176</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.152228832244873</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.7928466796875</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.889066696166992</v>
+      </c>
+      <c r="F273" t="n">
+        <v>257.58</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Normal_Videos_926_x264.npy</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.006967067718505859</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.005087852478027344</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.4559476375579834</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.4870932102203369</v>
+      </c>
+      <c r="F274" t="n">
+        <v>59.91</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Normal_Videos_927_x264.npy</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.007295131683349609</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.008675813674926758</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.4387538433074951</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.4657692909240723</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Normal_Videos_928_x264.npy</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.001432180404663086</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.0112910270690918</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.3405768871307373</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.3570301532745361</v>
+      </c>
+      <c r="F276" t="n">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Normal_Videos_929_x264.npy</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.01381230354309082</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.01996755599975586</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.2648508548736572</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.2945992946624756</v>
+      </c>
+      <c r="F277" t="n">
+        <v>30.92</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Normal_Videos_930_x264.npy</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.005006551742553711</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.01366591453552246</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.9002997875213623</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.9090576171875</v>
+      </c>
+      <c r="F278" t="n">
+        <v>106.3</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Normal_Videos_931_x264.npy</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.007950782775878906</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.03845882415771484</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.500375509262085</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.5247859954833984</v>
+      </c>
+      <c r="F279" t="n">
+        <v>58.89</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Normal_Videos_932_x264.npy</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.002279043197631836</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.01282000541687012</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3592774868011475</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.3791875839233398</v>
+      </c>
+      <c r="F280" t="n">
+        <v>59.51</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Normal_Videos_933_x264.npy</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.004569768905639648</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.009207725524902344</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.2861604690551758</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.3166563510894775</v>
+      </c>
+      <c r="F281" t="n">
+        <v>59.07</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Normal_Videos_934_x264.npy</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.004776477813720703</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.01180458068847656</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2792758941650391</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.2986125946044922</v>
+      </c>
+      <c r="F282" t="n">
+        <v>58.89</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Normal_Videos_935_x264.npy</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.005601882934570312</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.009457588195800781</v>
+      </c>
+      <c r="D283" t="n">
+        <v>85.88820743560791</v>
+      </c>
+      <c r="E283" t="n">
+        <v>86.6759946346283</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3599.84</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Normal_Videos_936_x264.npy</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.785872220993042</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.1452467441558838</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7122423648834229</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.7512912750244141</v>
+      </c>
+      <c r="F284" t="n">
+        <v>38.36</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Normal_Videos_937_x264.npy</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.006993770599365234</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.01111865043640137</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.2220475673675537</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.2528152465820312</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Normal_Videos_938_x264.npy</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.007673501968383789</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.01182889938354492</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.079791784286499</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1.111475706100464</v>
+      </c>
+      <c r="F286" t="n">
+        <v>160.96</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Normal_Videos_939_x264.npy</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.002115488052368164</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.01421213150024414</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.2403295040130615</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.250999927520752</v>
+      </c>
+      <c r="F287" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Normal_Videos_940_x264.npy</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.01290369033813477</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.02354645729064941</v>
+      </c>
+      <c r="D288" t="n">
+        <v>7.999591112136841</v>
+      </c>
+      <c r="E288" t="n">
+        <v>8.030598163604736</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1200.63</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Normal_Videos_941_x264.npy</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.001878023147583008</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.01095128059387207</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.4247252941131592</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.4477252960205078</v>
+      </c>
+      <c r="F289" t="n">
+        <v>67.36</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Normal_Videos_943_x264.npy</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.002602100372314453</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.02629780769348145</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2574968338012695</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.2664501667022705</v>
+      </c>
+      <c r="F290" t="n">
+        <v>34.12</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Normal_Videos_944_x264.npy</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.01515293121337891</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.0230412483215332</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.302899837493896</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.340714931488037</v>
+      </c>
+      <c r="F291" t="n">
+        <v>239.03</v>
       </c>
     </row>
   </sheetData>

--- a/annotations/time_prediction.xlsx
+++ b/annotations/time_prediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,5497 @@
         <v>468.7519772052765</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Abuse030_x264.npy</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4922103881835938</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7102370262145996</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.525622606277466</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.684240341186523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Arrest001_x264.npy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02684307098388672</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5821084976196289</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1158225536346436</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7566156387329102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Arrest007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.008738517761230469</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8084301948547363</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.247560977935791</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.123353242874146</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arrest024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.009193181991577148</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8644063472747803</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3952620029449463</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.337919950485229</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Arrest030_x264.npy</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.009283304214477539</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.310063600540161</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7074737548828125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.184926986694336</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Arrest039_x264.npy</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.007508039474487305</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.696980476379395</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.149956703186035</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.943797826766968</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arson007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01103019714355469</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9636564254760742</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4304571151733398</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.479994773864746</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Arson009_x264.npy</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.009192228317260742</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5621547698974609</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1224126815795898</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7189240455627441</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Arson010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01633763313293457</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7063167095184326</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1413350105285645</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9106719493865967</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Arson011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.005549907684326172</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5169980525970459</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1183853149414062</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7779030799865723</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Arson016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01274561882019043</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5901281833648682</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09898662567138672</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.731572151184082</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Arson018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.004078388214111328</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4615435600280762</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08797502517700195</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5952413082122803</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Arson022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.001539230346679688</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.244147300720215</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5605483055114746</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.006936311721802</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Arson035_x264.npy</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01220417022705078</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4802539348602295</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1704142093658447</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6849813461303711</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arson041_x264.npy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01227688789367676</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8681223392486572</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3672018051147461</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.293009042739868</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Assault006_x264.npy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.006578922271728516</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.325777292251587</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4551730155944824</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.926344394683838</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Assault010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.009813308715820312</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.7295241355896</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.198745965957642</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.050965070724487</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Assault011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.002067804336547852</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5618677139282227</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1452715396881104</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.806506872177124</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Burglary005_x264.npy</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.009290933609008789</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.154894828796387</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4926679134368896</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.819354295730591</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Burglary017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01083183288574219</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6756889820098877</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1431021690368652</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8934779167175293</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Burglary018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01001477241516113</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6555471420288086</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.08723616600036621</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8127727508544922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Burglary021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0127410888671875</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.999107837677002</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.210552453994751</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.234687089920044</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Burglary024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.002338647842407227</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8287973403930664</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1847622394561768</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.075306177139282</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Burglary032_x264.npy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.004730939865112305</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.899771213531494</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.306501865386963</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.374249935150146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Burglary033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.008658885955810547</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6493518352508545</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.07188701629638672</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7504837512969971</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Burglary035_x264.npy</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.01215434074401855</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7299854755401611</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.3800225257873535</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.196384429931641</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Burglary037_x264.npy</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01416993141174316</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6970639228820801</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1799070835113525</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9377834796905518</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Burglary061_x264.npy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0144956111907959</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.210992336273193</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.552647590637207</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.9042809009552</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Burglary076_x264.npy</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.009011507034301758</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.46774959564209</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9865665435791016</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.599047183990479</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Burglary079_x264.npy</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.008460521697998047</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.620023727416992</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.183212280273438</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.957562685012817</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Burglary092_x264.npy</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.009769916534423828</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5219433307647705</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.07444500923156738</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6326096057891846</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Explosion002_x264.npy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.005858182907104492</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7671442031860352</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3290879726409912</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.200739622116089</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Explosion004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.005215883255004883</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7416553497314453</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1967315673828125</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9639766216278076</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Explosion007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.00989532470703125</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.010043144226074</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.354534149169922</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.540404319763184</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Explosion008_x264.npy</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.002144813537597656</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6430518627166748</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1106481552124023</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7930657863616943</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Explosion010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5865542888641357</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1459205150604248</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8070554733276367</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Explosion011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.003180742263793945</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4735820293426514</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1565725803375244</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.670426607131958</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Explosion013_x264.npy</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0139315128326416</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6549136638641357</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2052936553955078</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9256398677825928</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Explosion016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.003137350082397461</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5375740528106689</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.04513454437255859</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6026737689971924</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Explosion017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.007346630096435547</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5150606632232666</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1983730792999268</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7672090530395508</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Explosion020_x264.npy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.007763147354125977</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3623251914978027</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1441299915313721</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5459141731262207</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Explosion021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.002668857574462891</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5062286853790283</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1072895526885986</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6348536014556885</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Explosion022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.002413511276245117</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8748276233673096</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1949880123138428</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.11134147644043</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Explosion025_x264.npy</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.01251530647277832</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4398889541625977</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.06231880187988281</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5492403507232666</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Explosion027_x264.npy</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.003153324127197266</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4560556411743164</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.08063936233520508</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5687305927276611</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Explosion028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.003122806549072266</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6000020503997803</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.1463150978088379</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8007133007049561</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Explosion029_x264.npy</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.003015756607055664</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.6458215713500977</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.1932992935180664</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8974204063415527</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Explosion033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.002252101898193359</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7523927688598633</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2259008884429932</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.074092388153076</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Explosion035_x264.npy</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.007494449615478516</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6795597076416016</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2136528491973877</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9307897090911865</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Explosion036_x264.npy</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.00264739990234375</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8781161308288574</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.3660662174224854</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.317970514297485</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Explosion039_x264.npy</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.01071739196777344</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5452756881713867</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.127514123916626</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.7213618755340576</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Explosion043_x264.npy</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.004189729690551758</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.058753490447998</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.4207921028137207</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.619270801544189</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fighting003_x264.npy</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.008896350860595703</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6930062770843506</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1954061985015869</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9421353340148926</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fighting018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.001746416091918945</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5913171768188477</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.1223046779632568</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7567691802978516</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Fighting033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0100090503692627</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4159421920776367</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.09800004959106445</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5609471797943115</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fighting042_x264.npy</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.003908395767211914</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5292251110076904</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.1513071060180664</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7682547569274902</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Fighting047_x264.npy</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.009368658065795898</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.7622373104095459</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4002900123596191</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.219789743423462</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RoadAccidents001_x264.npy</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.00973963737487793</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5889472961425781</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.09490418434143066</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7115988731384277</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>RoadAccidents002_x264.npy</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.002582788467407227</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.3490986824035645</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.06578803062438965</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.4338016510009766</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>RoadAccidents004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01064157485961914</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.331045389175415</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0692598819732666</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.4236934185028076</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>RoadAccidents009_x264.npy</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.009792327880859375</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5626788139343262</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.04688286781311035</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6175761222839355</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>RoadAccidents010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.002336740493774414</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5128848552703857</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.08571362495422363</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6299889087677002</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>RoadAccidents011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.003021478652954102</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5606410503387451</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.231748104095459</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8320255279541016</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>RoadAccidents012_x264.npy</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.01026606559753418</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4275205135345459</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.06703948974609375</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5412583351135254</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>RoadAccidents016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.002394199371337891</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5466718673706055</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1944570541381836</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7674620151519775</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RoadAccidents017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.007017850875854492</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.4130175113677979</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.01679778099060059</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.4740309715270996</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>RoadAccidents019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.002775430679321289</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5411558151245117</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.1141390800476074</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7045528888702393</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RoadAccidents020_x264.npy</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01086640357971191</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5997984409332275</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.2307994365692139</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.8761169910430908</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>RoadAccidents021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.008937358856201172</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.3550078868865967</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.01906943321228027</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.4026215076446533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>RoadAccidents022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.002997875213623047</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.5601246356964111</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.07548809051513672</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6820995807647705</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RoadAccidents121_x264.npy</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.001528263092041016</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5041468143463135</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1489555835723877</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7298398017883301</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RoadAccidents122_x264.npy</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.002990961074829102</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.4478731155395508</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.09436321258544922</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5898184776306152</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>RoadAccidents123_x264.npy</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.002158164978027344</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5158114433288574</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.06660008430480957</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6201553344726562</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>RoadAccidents124_x264.npy</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.002202987670898438</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.3925306797027588</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.1854557991027832</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6624548435211182</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>RoadAccidents125_x264.npy</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.01015782356262207</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4964323043823242</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.1328845024108887</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.6552526950836182</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>RoadAccidents127_x264.npy</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.01097273826599121</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6566824913024902</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.1506924629211426</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8943092823028564</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>RoadAccidents128_x264.npy</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.007093429565429688</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4084432125091553</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.08782839775085449</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.5336604118347168</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>RoadAccidents131_x264.npy</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.002994060516357422</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.3592510223388672</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.1441912651062012</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5496590137481689</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>RoadAccidents132_x264.npy</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.01153135299682617</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.5276877880096436</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.1541249752044678</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7823843955993652</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RoadAccidents133_x264.npy</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.00507354736328125</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.3381032943725586</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.06436300277709961</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4300501346588135</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Robbery048_x264.npy</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.01043009757995605</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3560214042663574</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1448910236358643</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5400912761688232</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Robbery050_x264.npy</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.008836269378662109</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.5074760913848877</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.1826567649841309</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7352046966552734</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Robbery102_x264.npy</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.007475852966308594</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.5980303287506104</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.164992094039917</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.8017005920410156</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Robbery106_x264.npy</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.002739906311035156</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.3898158073425293</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.163447380065918</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6122820377349854</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Robbery137_x264.npy</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.004206418991088867</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4902172088623047</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.2236735820770264</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7514007091522217</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Shooting002_x264.npy</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.01131486892700195</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.2715678215026855</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1609413623809814</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.4551942348480225</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Shooting004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.01638603210449219</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.5328986644744873</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1977066993713379</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7609047889709473</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Shooting007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.02442622184753418</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.2996878623962402</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1851599216461182</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5151991844177246</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Shooting008_x264.npy</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.005236387252807617</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4492506980895996</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.1918802261352539</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7217555046081543</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Shooting010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.005687236785888672</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.6165242195129395</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.1876561641693115</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.863131046295166</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Shooting011_x264.npy</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.003218412399291992</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.8317756652832031</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2415702342987061</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.12466287612915</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Shooting013_x264.npy</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0163118839263916</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.4914793968200684</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0631721019744873</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.595116138458252</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Shooting015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.007218837738037109</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.5594146251678467</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.132709264755249</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.7200748920440674</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Shooting018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.004491806030273438</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4994382858276367</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.163041353225708</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6884195804595947</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Shooting019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.006681203842163086</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.6979799270629883</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1111640930175781</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8508334159851074</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Shooting021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.007372379302978516</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.5049381256103516</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.09180545806884766</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.6662459373474121</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Shooting022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.002837419509887695</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.8099045753479004</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.2917289733886719</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.199778318405151</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Shooting024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.02121663093566895</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5142545700073242</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.2015421390533447</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.783750057220459</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Shooting026_x264.npy</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.01088118553161621</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.776771068572998</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.1214554309844971</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9430875778198242</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Shooting028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.002317190170288086</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.4688971042633057</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.1610696315765381</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.6900870800018311</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Shooting032_x264.npy</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.002993583679199219</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.305697917938232</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.229934453964233</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.731986045837402</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Shooting033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.001610755920410156</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7014827728271484</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.2739927768707275</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.045356273651123</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Shooting034_x264.npy</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.006605386734008789</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.6665561199188232</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1404407024383545</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8244128227233887</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Shooting037_x264.npy</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.007876873016357422</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.28790283203125</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.04682350158691406</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.3574061393737793</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Shooting043_x264.npy</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.007867336273193359</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5675547122955322</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.139063835144043</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7449567317962646</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Shooting046_x264.npy</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.01021289825439453</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8236262798309326</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.3284268379211426</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.225247621536255</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Shooting047_x264.npy</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0109553337097168</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.144773483276367</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.545825719833374</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.791722297668457</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Shooting048_x264.npy</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.002383708953857422</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.6352765560150146</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.2075703144073486</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9192264080047607</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Shoplifting001_x264.npy</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.002391815185546875</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.7943813800811768</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3063437938690186</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.172175168991089</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Shoplifting004_x264.npy</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.006107330322265625</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.017567873001099</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.4029662609100342</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.594407081604004</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Shoplifting005_x264.npy</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.00305485725402832</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.5261728763580322</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.09493613243103027</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6374905109405518</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Shoplifting007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.00431513786315918</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8968918323516846</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.2591328620910645</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.266074657440186</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Shoplifting010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.004486560821533203</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6779389381408691</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.2360386848449707</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.950721263885498</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Shoplifting015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.007198810577392578</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.457578182220459</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.1491134166717529</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6443803310394287</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Shoplifting016_x264.npy</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.007936477661132812</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.6627705097198486</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1102538108825684</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.8004839420318604</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Shoplifting017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.02394962310791016</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.2775776386260986</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.06372380256652832</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3963663578033447</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Shoplifting020_x264.npy</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.003085136413574219</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.878122091293335</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.3527040481567383</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.2873694896698</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Shoplifting021_x264.npy</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.002872705459594727</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9911477565765381</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.2868289947509766</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.331036329269409</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Shoplifting022_x264.npy</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.01287722587585449</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5090892314910889</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.1755788326263428</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7371714115142822</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Shoplifting027_x264.npy</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.003021717071533203</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5525050163269043</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.1432075500488281</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.7428021430969238</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Shoplifting028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.003016948699951172</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4763667583465576</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.09066128730773926</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6017215251922607</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Shoplifting029_x264.npy</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0110628604888916</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.461184024810791</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.2157247066497803</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.7903373241424561</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Shoplifting031_x264.npy</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.004862070083618164</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4825601577758789</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.04923844337463379</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5662555694580078</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Shoplifting033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.002006292343139648</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4967458248138428</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.08099102973937988</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.6247038841247559</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Shoplifting034_x264.npy</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.002144098281860352</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.379262685775757</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.9350218772888184</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.477055072784424</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Shoplifting037_x264.npy</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.002010583877563477</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5986847877502441</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.1417717933654785</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7858660221099854</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Shoplifting039_x264.npy</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.002277612686157227</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.6635515689849854</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.2074794769287109</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.9148004055023193</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Shoplifting044_x264.npy</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.004999876022338867</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.652463674545288</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9827349185943604</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.813907146453857</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Shoplifting049_x264.npy</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.007171630859375</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4933974742889404</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.1247358322143555</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.6354892253875732</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Stealing019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.002057313919067383</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.7763891220092773</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.2566983699798584</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.097000598907471</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Stealing036_x264.npy</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.008032798767089844</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4902307987213135</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1873252391815186</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.7069001197814941</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Stealing058_x264.npy</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.003019809722900391</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.80718994140625</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.3818166255950928</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.280827760696411</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Stealing062_x264.npy</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.002995729446411133</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5306780338287354</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.1458315849304199</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.701573371887207</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Stealing079_x264.npy</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.002002477645874023</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.847287654876709</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.3045673370361328</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.208455085754395</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Vandalism007_x264.npy</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.002329111099243164</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.4100131988525391</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.1407437324523926</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5704700946807861</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Vandalism015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.002992153167724609</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.7326724529266357</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2237398624420166</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.057385921478271</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Vandalism017_x264.npy</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.00531768798828125</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.268608808517456</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.09611892700195312</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.395537376403809</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Vandalism028_x264.npy</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.0042266845703125</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.7358508110046387</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.3612098693847656</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.127493619918823</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Vandalism036_x264.npy</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.003012418746948242</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.3681373596191406</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.2017202377319336</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.6060807704925537</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Normal_Videos_003_x264.npy</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.003231287002563477</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.6359922885894775</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.2208330631256104</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.927734375</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Normal_Videos_006_x264.npy</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.007487058639526367</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.3613669872283936</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.06388664245605469</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4533002376556396</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Normal_Videos_010_x264.npy</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.009425878524780273</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5728061199188232</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.09817957878112793</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.6883323192596436</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Normal_Videos_014_x264.npy</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.002171754837036133</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5405678749084473</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.1990447044372559</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.7754089832305908</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Normal_Videos_015_x264.npy</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.008018016815185547</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.3985421657562256</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0486304759979248</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4919018745422363</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Normal_Videos_018_x264.npy</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.00818634033203125</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.4017081260681152</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.1816596984863281</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.6107676029205322</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Normal_Videos_019_x264.npy</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.002602577209472656</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.6876654624938965</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.2284402847290039</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.9738380908966064</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Normal_Videos_024_x264.npy</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.002073526382446289</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4031555652618408</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1420001983642578</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.5635590553283691</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Normal_Videos_025_x264.npy</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.002993345260620117</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.3281924724578857</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.06133317947387695</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4340429306030273</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Normal_Videos_027_x264.npy</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.00444483757019043</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.87888503074646</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.3485586643218994</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.371042966842651</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Normal_Videos_033_x264.npy</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.002192020416259766</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5228111743927002</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.1900997161865234</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.777188777923584</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Normal_Videos_034_x264.npy</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.004334211349487305</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.3709108829498291</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.1777524948120117</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.5671336650848389</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Normal_Videos_041_x264.npy</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.003458261489868164</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5522530078887939</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.1131529808044434</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.7085487842559814</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Normal_Videos_042_x264.npy</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.002442836761474609</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.6061286926269531</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.1993517875671387</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.8821673393249512</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Normal_Videos_048_x264.npy</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.004318952560424805</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.3873059749603271</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1765706539154053</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.6475999355316162</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Normal_Videos_050_x264.npy</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.002841711044311523</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.7654199600219727</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.30653977394104</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.10644793510437</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Normal_Videos_051_x264.npy</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.006501913070678711</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.3851859569549561</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.1964888572692871</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.6524984836578369</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Normal_Videos_056_x264.npy</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.006824016571044922</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4161040782928467</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.1472532749176025</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.6183300018310547</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Normal_Videos_059_x264.npy</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.004014730453491211</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.046497106552124</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.09881925582885742</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.175097703933716</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Normal_Videos_063_x264.npy</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.002937555313110352</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.3557503223419189</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.06602668762207031</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.4420173168182373</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Normal_Videos_067_x264.npy</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.002521991729736328</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.363055944442749</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.1042129993438721</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.5060839653015137</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Normal_Videos_070_x264.npy</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.008518218994140625</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.2969620227813721</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.1475780010223389</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4819605350494385</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Normal_Videos_100_x264.npy</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.002276420593261719</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.323960542678833</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.1014659404754639</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4454154968261719</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Normal_Videos_129_x264.npy</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.009214162826538086</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.4915943145751953</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.03255748748779297</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.5359015464782715</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Normal_Videos_150_x264.npy</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.009563446044921875</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.3983564376831055</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.06648445129394531</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.5001401901245117</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Normal_Videos_168_x264.npy</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.002993345260620117</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.5025701522827148</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.1641535758972168</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.7188282012939453</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Normal_Videos_175_x264.npy</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.00846552848815918</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.19804048538208</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.5296008586883545</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.854287624359131</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Normal_Videos_182_x264.npy</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.003830671310424805</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.7006130218505859</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3067371845245361</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.091844320297241</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Normal_Videos_189_x264.npy</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.006618261337280273</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.2954292297363281</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1908054351806641</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5450336933135986</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Normal_Videos_196_x264.npy</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.0009992122650146484</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.6833076477050781</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.1575953960418701</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8554296493530273</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Normal_Videos_203_x264.npy</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.007124662399291992</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.5028190612792969</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1321542263031006</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.6887338161468506</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Normal_Videos_210_x264.npy</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.002061605453491211</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.8444831371307373</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.3474459648132324</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.262373447418213</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Normal_Videos_217_x264.npy</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.007194042205810547</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.4401915073394775</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1697971820831299</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.7062690258026123</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Normal_Videos_224_x264.npy</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.008235454559326172</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.9232616424560547</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.494257926940918</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.512673854827881</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Normal_Videos_246_x264.npy</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.002302646636962891</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.8861753940582275</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.3032419681549072</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.251051187515259</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Normal_Videos_247_x264.npy</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.005780220031738281</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.124678611755371</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4570052623748779</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.689033985137939</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Normal_Videos_248_x264.npy</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.003737449645996094</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.3186016082763672</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.06560802459716797</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4352717399597168</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Normal_Videos_251_x264.npy</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.002053260803222656</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.3435678482055664</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.06284499168395996</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.4333562850952148</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Normal_Videos_289_x264.npy</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.007138252258300781</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.4452805519104004</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.06719708442687988</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.5523059368133545</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Normal_Videos_310_x264.npy</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.005958795547485352</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6411826610565186</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.2452044486999512</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.9319658279418945</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Normal_Videos_312_x264.npy</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.002260208129882812</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.6371543407440186</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.1264612674713135</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.8302443027496338</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Normal_Videos_317_x264.npy</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.003652334213256836</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.5468950271606445</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.1142244338989258</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.7214031219482422</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Normal_Videos_345_x264.npy</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.004594802856445312</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.3414168357849121</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.05037236213684082</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.4118747711181641</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Normal_Videos_352_x264.npy</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.002993106842041016</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.9873883724212646</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.2986242771148682</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.398717880249023</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Normal_Videos_360_x264.npy</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.004685878753662109</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.3347311019897461</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.09406518936157227</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.4741652011871338</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Normal_Videos_365_x264.npy</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.004468917846679688</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.9050962924957275</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.6740884780883789</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.667161464691162</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Normal_Videos_401_x264.npy</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.008013725280761719</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.494138240814209</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1299848556518555</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.6621592044830322</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Normal_Videos_417_x264.npy</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.004196405410766602</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.3354010581970215</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1142477989196777</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.4615037441253662</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Normal_Videos_439_x264.npy</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.004738569259643555</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.8184285163879395</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.2642080783843994</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.198843717575073</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Normal_Videos_452_x264.npy</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.01026248931884766</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.4844818115234375</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.07314443588256836</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5760195255279541</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Normal_Videos_453_x264.npy</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.008040904998779297</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.712954044342041</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.3562295436859131</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.127628803253174</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Normal_Videos_478_x264.npy</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.002199888229370117</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.671546459197998</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.2200033664703369</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.9671058654785156</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Normal_Videos_576_x264.npy</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.002997636795043945</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.470134258270264</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.7840518951416016</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.451659440994263</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Normal_Videos_597_x264.npy</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.005429983139038086</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.6385681629180908</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.172795295715332</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.8572735786437988</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Normal_Videos_603_x264.npy</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.002267122268676758</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.8487684726715088</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.2689158916473389</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.146458148956299</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Normal_Videos_606_x264.npy</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.002123594284057617</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.597337007522583</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.1093757152557373</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.7270805835723877</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Normal_Videos_621_x264.npy</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.007623910903930664</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.8611888885498047</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.3185436725616455</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.285259246826172</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Normal_Videos_634_x264.npy</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.007753849029541016</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.576516151428223</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.9465208053588867</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.728248119354248</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Normal_Videos_641_x264.npy</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.002995729446411133</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.653914213180542</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.1975321769714355</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.928337574005127</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Normal_Videos_656_x264.npy</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.003282070159912109</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.5487797260284424</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.1617541313171387</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.7513017654418945</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Normal_Videos_686_x264.npy</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.00740361213684082</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.6996715068817139</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.1409726142883301</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.9046437740325928</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Normal_Videos_696_x264.npy</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.003816366195678711</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.7286653518676758</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.299001932144165</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.097368717193604</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Normal_Videos_702_x264.npy</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.001995325088500977</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.5920774936676025</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1800317764282227</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.8036997318267822</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Normal_Videos_704_x264.npy</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.002993345260620117</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.4346368312835693</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.1460943222045898</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.6322159767150879</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Normal_Videos_710_x264.npy</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.002324581146240234</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.5553011894226074</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1307077407836914</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.7634921073913574</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Normal_Videos_717_x264.npy</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.003261089324951172</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.3878569602966309</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.1110403537750244</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.5480246543884277</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Normal_Videos_722_x264.npy</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.005693435668945312</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.153560161590576</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.5133161544799805</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.77844762802124</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Normal_Videos_725_x264.npy</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.007595062255859375</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.3461649417877197</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.1333508491516113</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.5180237293243408</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Normal_Videos_745_x264.npy</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.006271123886108398</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.4430379867553711</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.03386688232421875</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.5383715629577637</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Normal_Videos_758_x264.npy</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.006921768188476562</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.3942294120788574</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.1285476684570312</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.5726354122161865</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Normal_Videos_778_x264.npy</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.007861852645874023</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4030754566192627</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.133256196975708</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.582402229309082</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Normal_Videos_780_x264.npy</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.001408100128173828</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4555273056030273</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.1624343395233154</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.7104530334472656</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Normal_Videos_781_x264.npy</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.0009965896606445312</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7509126663208008</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.2644424438476562</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.137231826782227</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Normal_Videos_782_x264.npy</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.01102352142333984</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.8352186679840088</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.2745363712310791</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.215639352798462</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Normal_Videos_783_x264.npy</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.005259275436401367</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.272142171859741</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.623884916305542</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.008296728134155</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Normal_Videos_798_x264.npy</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.003026008605957031</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.9816734790802002</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.4422316551208496</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.4859778881073</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Normal_Videos_801_x264.npy</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.002214908599853516</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.6247663497924805</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.2616689205169678</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.9673833847045898</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Normal_Videos_828_x264.npy</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.002161026000976562</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.3278348445892334</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.1206886768341064</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.4768691062927246</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Normal_Videos_831_x264.npy</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.009886264801025391</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.4272263050079346</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.05452799797058105</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.5038754940032959</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Normal_Videos_866_x264.npy</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.003042459487915039</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.3340184688568115</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1193060874938965</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.4863483905792236</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Normal_Videos_867_x264.npy</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.001996278762817383</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.3278408050537109</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.0323188304901123</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.4086189270019531</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Normal_Videos_868_x264.npy</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.007671594619750977</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.5977072715759277</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.2630345821380615</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.9099686145782471</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Normal_Videos_869_x264.npy</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.007479190826416016</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.5974278450012207</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.1864738464355469</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.8265707492828369</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Normal_Videos_870_x264.npy</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.002503871917724609</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1938138008117676</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.01563453674316406</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2256841659545898</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Normal_Videos_871_x264.npy</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.00232243537902832</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7549428939819336</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3242366313934326</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.160840511322021</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Normal_Videos_872_x264.npy</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.02387905120849609</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1728851795196533</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.008038997650146484</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.2015230655670166</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Normal_Videos_873_x264.npy</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.001997232437133789</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.48722243309021</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.1744148731231689</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.7158455848693848</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Normal_Videos_874_x264.npy</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.006484031677246094</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7748568058013916</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.2660911083221436</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.102253437042236</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Normal_Videos_875_x264.npy</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.004508495330810547</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.5494861602783203</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1580514907836914</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.7845821380615234</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Normal_Videos_876_x264.npy</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.002062797546386719</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.2841510772705078</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.01577949523925781</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.314415454864502</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Normal_Videos_877_x264.npy</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.002143144607543945</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.31275749206543</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.8388969898223877</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.277850866317749</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Normal_Videos_878_x264.npy</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.002758502960205078</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.4013988971710205</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.01686453819274902</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.4382591247558594</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Normal_Videos_879_x264.npy</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.003484010696411133</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.7955746650695801</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.09497594833374023</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.9252965450286865</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Normal_Videos_880_x264.npy</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.002361536026000977</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.929859161376953</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.726597785949707</v>
+      </c>
+      <c r="E235" t="n">
+        <v>3.797988414764404</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Normal_Videos_881_x264.npy</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.002336740493774414</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.5628621578216553</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.0156404972076416</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.6084315776824951</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Normal_Videos_882_x264.npy</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.005084514617919922</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.7883951663970947</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1920490264892578</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.998105525970459</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Normal_Videos_883_x264.npy</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.00421142578125</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4334969520568848</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.05209136009216309</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.5384171009063721</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Normal_Videos_884_x264.npy</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.003508090972900391</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.281538248062134</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.7031176090240479</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.107723951339722</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Normal_Videos_885_x264.npy</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.003140449523925781</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.3978719711303711</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.07003188133239746</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.4958391189575195</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Normal_Videos_886_x264.npy</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.002763032913208008</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8374712467193604</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.1729893684387207</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.045215368270874</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Normal_Videos_887_x264.npy</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.002028226852416992</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.129940986633301</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.4699747562408447</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.704649448394775</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Normal_Videos_888_x264.npy</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.003141641616821289</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4842700958251953</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.05012845993041992</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.5504326820373535</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Normal_Videos_889_x264.npy</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.03450179100036621</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.258298397064209</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.02595829963684082</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.3156633377075195</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Normal_Videos_890_x264.npy</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.002191305160522461</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.9195480346679688</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.2653408050537109</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.226159572601318</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Normal_Videos_891_x264.npy</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.003411769866943359</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.7748591899871826</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1925771236419678</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.040623903274536</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Normal_Videos_892_x264.npy</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.004532575607299805</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.422996997833252</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.1445391178131104</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.6025791168212891</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Normal_Videos_893_x264.npy</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.002992153167724609</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.151572227478027</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.4218275547027588</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.672874212265015</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Normal_Videos_894_x264.npy</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.007489681243896484</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.6138136386871338</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.2054817676544189</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.854525089263916</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Normal_Videos_895_x264.npy</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.002063512802124023</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.7715904712677002</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.1972687244415283</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.047319889068604</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Normal_Videos_896_x264.npy</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.004525184631347656</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6750128269195557</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.1766016483306885</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.8860270977020264</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Normal_Videos_897_x264.npy</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.002152204513549805</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.3810179233551025</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.06799674034118652</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.481109619140625</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Normal_Videos_898_x264.npy</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.002049922943115234</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.49371337890625</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.1653017997741699</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.6909642219543457</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Normal_Videos_899_x264.npy</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.001947641372680664</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.4810962677001953</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1393120288848877</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.6742568016052246</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Normal_Videos_900_x264.npy</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.002295255661010742</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.6196870803833008</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1265993118286133</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.7865071296691895</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Normal_Videos_901_x264.npy</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.002066373825073242</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6393051147460938</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.1429107189178467</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.796168327331543</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Normal_Videos_902_x264.npy</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.007254123687744141</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.3561160564422607</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.154855489730835</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.5344915390014648</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Normal_Videos_903_x264.npy</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.003033638000488281</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.3955333232879639</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.1223955154418945</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.5535554885864258</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Normal_Videos_904_x264.npy</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.001997947692871094</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.481907844543457</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.08576583862304688</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.6025710105895996</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Normal_Videos_905_x264.npy</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.004100799560546875</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.6421089172363281</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.09372544288635254</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.7917766571044922</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Normal_Videos_906_x264.npy</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.002028942108154297</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.3901300430297852</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.06372952461242676</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.4955813884735107</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Normal_Videos_907_x264.npy</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.006152153015136719</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.2979779243469238</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.05437636375427246</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.4038257598876953</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Normal_Videos_908_x264.npy</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.002992153167724609</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.4263567924499512</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1126220226287842</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.5641336441040039</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Normal_Videos_909_x264.npy</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.002992868423461914</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.3209834098815918</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.06280398368835449</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.4296736717224121</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Normal_Videos_910_x264.npy</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.002368450164794922</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.3334341049194336</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.08163905143737793</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.4518833160400391</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Normal_Videos_911_x264.npy</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.001736640930175781</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.4154901504516602</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.08980083465576172</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.5654580593109131</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Normal_Videos_912_x264.npy</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.002316713333129883</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.4737401008605957</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.09007787704467773</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.6085519790649414</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Normal_Videos_913_x264.npy</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.001885414123535156</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.2922980785369873</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.0725407600402832</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.4096088409423828</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Normal_Videos_914_x264.npy</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.002222061157226562</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.533191442489624</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.0937201976776123</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.6457843780517578</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Normal_Videos_915_x264.npy</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.008778095245361328</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4184598922729492</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.1257660388946533</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.5850348472595215</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Normal_Videos_923_x264.npy</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.004448413848876953</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.986881256103516</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.580053091049194</v>
+      </c>
+      <c r="E271" t="n">
+        <v>3.803081035614014</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Normal_Videos_924_x264.npy</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.005350351333618164</v>
+      </c>
+      <c r="C272" t="n">
+        <v>9.484293222427368</v>
+      </c>
+      <c r="D272" t="n">
+        <v>95.14387702941895</v>
+      </c>
+      <c r="E272" t="n">
+        <v>106.8113439083099</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Normal_Videos_925_x264.npy</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.8349535465240479</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2.427109241485596</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.74828314781189</v>
+      </c>
+      <c r="E273" t="n">
+        <v>4.650816202163696</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Normal_Videos_926_x264.npy</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.01171016693115234</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.8194506168365479</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.230116605758667</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.111748933792114</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Normal_Videos_927_x264.npy</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.0167393684387207</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.7757656574249268</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1225221157073975</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.9435639381408691</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Normal_Videos_928_x264.npy</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.006526947021484375</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5438408851623535</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.1420509815216064</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.7174344062805176</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Normal_Videos_929_x264.npy</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.005381107330322266</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5054659843444824</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.08260631561279297</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.6150741577148438</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Normal_Videos_930_x264.npy</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.00918269157409668</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.7313437461853027</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.2331323623657227</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.095299959182739</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Normal_Videos_931_x264.npy</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.007764339447021484</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5342094898223877</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.2788429260253906</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.8817346096038818</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Normal_Videos_932_x264.npy</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.003142118453979492</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.5642385482788086</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2094259262084961</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.8071486949920654</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Normal_Videos_933_x264.npy</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.003905773162841797</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.4821493625640869</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.1919159889221191</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.7121005058288574</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Normal_Videos_934_x264.npy</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.00339818000793457</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.4772639274597168</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.1587207317352295</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.7007031440734863</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Normal_Videos_935_x264.npy</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.00302886962890625</v>
+      </c>
+      <c r="C283" t="n">
+        <v>9.330069065093994</v>
+      </c>
+      <c r="D283" t="n">
+        <v>52.16319036483765</v>
+      </c>
+      <c r="E283" t="n">
+        <v>63.52761554718018</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Normal_Videos_936_x264.npy</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.7635743618011475</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.9135277271270752</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.4662213325500488</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.656811952590942</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Normal_Videos_937_x264.npy</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.007502079010009766</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4003827571868896</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.07069039344787598</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.4862692356109619</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Normal_Videos_938_x264.npy</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.002012491226196289</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.9487812519073486</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.9593656063079834</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.045258522033691</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Normal_Videos_939_x264.npy</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.009923934936523438</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.3873124122619629</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.04385948181152344</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.4446408748626709</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Normal_Videos_940_x264.npy</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.004023313522338867</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.491632461547852</v>
+      </c>
+      <c r="D288" t="n">
+        <v>5.077274322509766</v>
+      </c>
+      <c r="E288" t="n">
+        <v>8.74280309677124</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Normal_Videos_941_x264.npy</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.02065205574035645</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.659914493560791</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1221785545349121</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.8240783214569092</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Normal_Videos_943_x264.npy</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.002995014190673828</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.4148175716400146</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.1274702548980713</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.5783514976501465</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Normal_Videos_944_x264.npy</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.004557609558105469</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1.076157569885254</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.4034719467163086</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.602978944778442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
